--- a/database1.xlsx
+++ b/database1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אדם אלנבארי\Documents\GitHub\Managing-bird-breeding-facility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enasa\OneDrive\שולחן העבודה\The Project\Managing-bird-breeding-facility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDFB305-2CDC-45BE-83F2-605B3A6C5702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E4D51-CDE7-477B-B067-113AABF5739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -442,13 +442,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/database1.xlsx
+++ b/database1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enasa\OneDrive\שולחן העבודה\The Project\Managing-bird-breeding-facility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אדם אלנבארי\Documents\GitHub\Managing-bird-breeding-facility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E4D51-CDE7-477B-B067-113AABF5739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8DA1DA-14AD-48F3-A1E0-9C3CFB038552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -442,13 +442,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/database1.xlsx
+++ b/database1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אדם אלנבארי\Documents\GitHub\Managing-bird-breeding-facility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enasa\OneDrive\שולחן העבודה\The Project\Managing-bird-breeding-facility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8DA1DA-14AD-48F3-A1E0-9C3CFB038552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283EABB-0E05-4D55-A9EF-32790636F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
+    <workbookView xWindow="4800" yWindow="1990" windowWidth="14400" windowHeight="7270" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>0!1231QQ</t>
+  </si>
+  <si>
+    <t>enasja</t>
+  </si>
+  <si>
+    <t>enas21344!</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -439,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24CE31F-5CFC-47BD-8CF7-A973325FA7BF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,6 +546,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>213449549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database1.xlsx
+++ b/database1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enasa\OneDrive\שולחן העבודה\The Project\Managing-bird-breeding-facility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283EABB-0E05-4D55-A9EF-32790636F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E64E5-6B9F-4B96-B9D2-CA0D391F127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1990" windowWidth="14400" windowHeight="7270" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D0E877A-82CD-4760-B80A-3B3F899B0183}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -45,48 +45,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>qqqq12</t>
-  </si>
-  <si>
-    <t>q!123456</t>
-  </si>
-  <si>
-    <t>aaaaa1</t>
-  </si>
-  <si>
-    <t>1234 567q!</t>
-  </si>
-  <si>
-    <t>qqqq11</t>
-  </si>
-  <si>
-    <t>q!123 45</t>
-  </si>
-  <si>
-    <t>anfal1</t>
-  </si>
-  <si>
-    <t>qq 12345!</t>
-  </si>
-  <si>
-    <t>qqqqqq</t>
-  </si>
-  <si>
-    <t>111111q!</t>
-  </si>
-  <si>
-    <t>qqqqq1</t>
-  </si>
-  <si>
-    <t>qqqq123!</t>
-  </si>
-  <si>
-    <t>asdfgg</t>
-  </si>
-  <si>
-    <t>0!1231QQ</t>
   </si>
   <si>
     <t>enasja</t>
@@ -445,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24CE31F-5CFC-47BD-8CF7-A973325FA7BF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -471,90 +429,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>123456789</v>
+        <v>213449549</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>123456787</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>123456788</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>123456799</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>123456798</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>123456777</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>567890123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>213449549</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
